--- a/data/trans_orig/P32E$amigos_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P32E$amigos_2023-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>10019</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4900</v>
+        <v>4455</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>17155</v>
+        <v>16646</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2649612848562266</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1295937476985411</v>
+        <v>0.1178075006544576</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4536764548535333</v>
+        <v>0.4402169551151147</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -775,19 +775,19 @@
         <v>10019</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4844</v>
+        <v>4838</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>17311</v>
+        <v>17836</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.236446505271724</v>
+        <v>0.2364465052717239</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1143211481490854</v>
+        <v>0.1141682565467121</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4085193488790498</v>
+        <v>0.4209106591276656</v>
       </c>
     </row>
     <row r="5">
@@ -804,19 +804,19 @@
         <v>16287</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>10432</v>
+        <v>9510</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>22754</v>
+        <v>23047</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4307257898735258</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2758714403331519</v>
+        <v>0.251482640223772</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6017356737599699</v>
+        <v>0.6094952650041765</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>4</v>
@@ -831,7 +831,7 @@
         <v>4560</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.7989729555228842</v>
+        <v>0.7989729555228839</v>
       </c>
       <c r="O5" s="6" t="n">
         <v>0.25140009587478</v>
@@ -846,19 +846,19 @@
         <v>19931</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>12806</v>
+        <v>13357</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>27131</v>
+        <v>26967</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.4703560579966859</v>
+        <v>0.4703560579966858</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3022048224909836</v>
+        <v>0.3152286112399196</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6402667819981681</v>
+        <v>0.6363963309988226</v>
       </c>
     </row>
     <row r="6">
@@ -875,19 +875,19 @@
         <v>10527</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5575</v>
+        <v>5225</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>16934</v>
+        <v>17348</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2783877622427648</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.147429490683629</v>
+        <v>0.1381781888392368</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4478182173660178</v>
+        <v>0.4587643116422165</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>0</v>
@@ -909,19 +909,19 @@
         <v>10527</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>5367</v>
+        <v>5640</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>17294</v>
+        <v>17409</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.2484280430948042</v>
+        <v>0.2484280430948041</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1266542600221616</v>
+        <v>0.1331104935667116</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4081295238830168</v>
+        <v>0.4108325585627746</v>
       </c>
     </row>
     <row r="7">
@@ -938,19 +938,19 @@
         <v>26746</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>20215</v>
+        <v>19328</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>32078</v>
+        <v>31568</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7072991535985135</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5345797365635893</v>
+        <v>0.5111431073285575</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8483178990338901</v>
+        <v>0.834835740382448</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -959,16 +959,16 @@
         <v>2089</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>206</v>
+        <v>297</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>4560</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.4580874717197917</v>
+        <v>0.4580874717197916</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04524453021103926</v>
+        <v>0.06512056308743609</v>
       </c>
       <c r="P7" s="6" t="n">
         <v>1</v>
@@ -980,19 +980,19 @@
         <v>28835</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>21773</v>
+        <v>21681</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>34737</v>
+        <v>35007</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.6804793252507195</v>
+        <v>0.6804793252507194</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5138227396500095</v>
+        <v>0.5116503784822602</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8197781664323258</v>
+        <v>0.8261482385610077</v>
       </c>
     </row>
     <row r="8">
@@ -1060,19 +1060,19 @@
         <v>9169</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3835</v>
+        <v>3870</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>16612</v>
+        <v>16604</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2303105557380928</v>
+        <v>0.2303105557380927</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.09631566518793826</v>
+        <v>0.09720450158039134</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.417250098661149</v>
+        <v>0.4170383727790616</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>4</v>
@@ -1081,19 +1081,19 @@
         <v>3442</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1091</v>
+        <v>926</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>7360</v>
+        <v>6960</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2680450200823971</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.08495149363569582</v>
+        <v>0.07210497631633379</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5731949745271595</v>
+        <v>0.5420898922161048</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>11</v>
@@ -1102,19 +1102,19 @@
         <v>12611</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>6753</v>
+        <v>6552</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>20696</v>
+        <v>19938</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2395125909899806</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1282474512229244</v>
+        <v>0.1244269308777174</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3930584560022643</v>
+        <v>0.3786580344738778</v>
       </c>
     </row>
     <row r="10">
@@ -1131,19 +1131,19 @@
         <v>30329</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>23553</v>
+        <v>22438</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>35450</v>
+        <v>34902</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.7617981932974781</v>
+        <v>0.7617981932974779</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5915908879205445</v>
+        <v>0.563580831623502</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8904113491973048</v>
+        <v>0.8766526373292942</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>10</v>
@@ -1152,19 +1152,19 @@
         <v>8525</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5324</v>
+        <v>4875</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>11035</v>
+        <v>10966</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.6639249051196769</v>
+        <v>0.6639249051196768</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4146380045410567</v>
+        <v>0.3796564000343196</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8594210055396607</v>
+        <v>0.8540279709139281</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>37</v>
@@ -1173,19 +1173,19 @@
         <v>38855</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>29912</v>
+        <v>31176</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>44647</v>
+        <v>44387</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.7379305311037716</v>
+        <v>0.7379305311037718</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5680944182470655</v>
+        <v>0.5920851780282115</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8479256656333346</v>
+        <v>0.8429940849615125</v>
       </c>
     </row>
     <row r="11">
@@ -1202,19 +1202,19 @@
         <v>6658</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1789</v>
+        <v>2416</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>14477</v>
+        <v>14424</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1672427819664253</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.04492905550142919</v>
+        <v>0.06067576737301877</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3636130793974187</v>
+        <v>0.3622911697223772</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1</v>
@@ -1226,16 +1226,16 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>4196</v>
+        <v>4491</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.07660621195493852</v>
+        <v>0.07660621195493854</v>
       </c>
       <c r="O11" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3268218645114843</v>
+        <v>0.3497394318699424</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>5</v>
@@ -1244,19 +1244,19 @@
         <v>7642</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2417</v>
+        <v>2590</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>15933</v>
+        <v>15641</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1451398867259952</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.04590604520441537</v>
+        <v>0.04918455830656214</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3026058958034936</v>
+        <v>0.2970479768061162</v>
       </c>
     </row>
     <row r="12">
@@ -1273,19 +1273,19 @@
         <v>20776</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>14027</v>
+        <v>13590</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>27094</v>
+        <v>28066</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.5218345024462958</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3523140780500556</v>
+        <v>0.3413339941988141</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6805201040183561</v>
+        <v>0.7049460703681488</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>5</v>
@@ -1294,19 +1294,19 @@
         <v>3724</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1420</v>
+        <v>1353</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>7078</v>
+        <v>6973</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.2899937876052556</v>
+        <v>0.2899937876052555</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1105975801882918</v>
+        <v>0.1053913006980802</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5512151791215284</v>
+        <v>0.5430386203507673</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>24</v>
@@ -1315,19 +1315,19 @@
         <v>24500</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>16879</v>
+        <v>16932</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>32162</v>
+        <v>31865</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.4652971573994951</v>
+        <v>0.4652971573994952</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3205703531623813</v>
+        <v>0.3215708121282009</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.6108154783824916</v>
+        <v>0.6051827656314303</v>
       </c>
     </row>
     <row r="13">
@@ -1360,7 +1360,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>3789</v>
+        <v>5019</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.073482510505596</v>
@@ -1369,7 +1369,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2950745957977417</v>
+        <v>0.3909150380928042</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1</v>
@@ -1381,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>5245</v>
+        <v>5343</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01791965683943192</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0996172344576754</v>
+        <v>0.1014771597009621</v>
       </c>
     </row>
     <row r="14">
@@ -1411,19 +1411,19 @@
         <v>7060</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2674</v>
+        <v>2559</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>12611</v>
+        <v>13084</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.2295767388325557</v>
+        <v>0.2295767388325558</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.08696261391631042</v>
+        <v>0.08321399289091348</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4100630803968403</v>
+        <v>0.4254310580626013</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>6</v>
@@ -1432,19 +1432,19 @@
         <v>7116</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3051</v>
+        <v>3044</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>12221</v>
+        <v>12572</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.3891751999432477</v>
+        <v>0.3891751999432476</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1668415929807108</v>
+        <v>0.166442010610136</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6683463575744663</v>
+        <v>0.6875477587762429</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>12</v>
@@ -1453,19 +1453,19 @@
         <v>14177</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>7704</v>
+        <v>7725</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>22700</v>
+        <v>21422</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2890878205706188</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1570933986420756</v>
+        <v>0.1575313306690614</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4628985455764116</v>
+        <v>0.4368323149370669</v>
       </c>
     </row>
     <row r="15">
@@ -1482,19 +1482,19 @@
         <v>23306</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>16002</v>
+        <v>15623</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>27642</v>
+        <v>27429</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.757835599841406</v>
+        <v>0.7578355998414064</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.520337321624216</v>
+        <v>0.5079859816152196</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.8987982103630113</v>
+        <v>0.8918944129106906</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>14</v>
@@ -1503,19 +1503,19 @@
         <v>15632</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>12087</v>
+        <v>11816</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>17566</v>
+        <v>17517</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.8548614011796185</v>
+        <v>0.8548614011796183</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.6610005166020707</v>
+        <v>0.6461509165835836</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.9606291439425284</v>
+        <v>0.9579424562764288</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>35</v>
@@ -1524,19 +1524,19 @@
         <v>38938</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>31445</v>
+        <v>31579</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>44285</v>
+        <v>43889</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.7940145852398598</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.6412219953128682</v>
+        <v>0.6439591989331053</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.9030645314120579</v>
+        <v>0.8949823675515369</v>
       </c>
     </row>
     <row r="16">
@@ -1553,19 +1553,19 @@
         <v>7393</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2539</v>
+        <v>2544</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13973</v>
+        <v>14714</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2403990456490062</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.08256299956003092</v>
+        <v>0.08271981285683061</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.45435861798104</v>
+        <v>0.4784436667258491</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -1577,16 +1577,16 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7986</v>
+        <v>8798</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.1473203124919676</v>
+        <v>0.1473203124919675</v>
       </c>
       <c r="O16" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4367043370811718</v>
+        <v>0.4811409480397753</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>7</v>
@@ -1595,19 +1595,19 @@
         <v>10087</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4087</v>
+        <v>4297</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>17917</v>
+        <v>17689</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.2056918432208946</v>
+        <v>0.2056918432208945</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08334110607626097</v>
+        <v>0.0876327973492865</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3653530336348259</v>
+        <v>0.360715385395894</v>
       </c>
     </row>
     <row r="17">
@@ -1624,19 +1624,19 @@
         <v>12619</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6950</v>
+        <v>7303</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>18909</v>
+        <v>18994</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.4103190322547762</v>
+        <v>0.4103190322547763</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2259794127686961</v>
+        <v>0.2374545311746355</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6148333992969576</v>
+        <v>0.6176135473625912</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>6</v>
@@ -1645,19 +1645,19 @@
         <v>6038</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2255</v>
+        <v>2259</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>11448</v>
+        <v>11235</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.3302083472843589</v>
+        <v>0.3302083472843588</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1233269441794319</v>
+        <v>0.1235160001476814</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6260652246364429</v>
+        <v>0.6144251237912874</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>18</v>
@@ -1666,19 +1666,19 @@
         <v>18657</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>11426</v>
+        <v>11939</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>27338</v>
+        <v>26157</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.3804473562487013</v>
+        <v>0.3804473562487014</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2330042888477863</v>
+        <v>0.2434688557863771</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5574681037663545</v>
+        <v>0.5333889229327781</v>
       </c>
     </row>
     <row r="18">
@@ -1698,16 +1698,16 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7077</v>
+        <v>6614</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.06623241143413236</v>
+        <v>0.06623241143413237</v>
       </c>
       <c r="H18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2301049951936036</v>
+        <v>0.2150459488670424</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>2</v>
@@ -1719,16 +1719,16 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>7966</v>
+        <v>7822</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.1513506816597829</v>
+        <v>0.1513506816597828</v>
       </c>
       <c r="O18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4356446037641735</v>
+        <v>0.4277320351221742</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>4</v>
@@ -1737,19 +1737,19 @@
         <v>4804</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1252</v>
+        <v>1155</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>12130</v>
+        <v>10947</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.09797131606735422</v>
+        <v>0.09797131606735424</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02553593171872657</v>
+        <v>0.02356210188780606</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2473572871303094</v>
+        <v>0.2232396225236528</v>
       </c>
     </row>
     <row r="19">
@@ -1770,19 +1770,19 @@
         <v>11898</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4371</v>
+        <v>5163</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>24063</v>
+        <v>24821</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2240642725402173</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.08231539017382124</v>
+        <v>0.09723216849521271</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4531619334810333</v>
+        <v>0.4674390782209028</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>3</v>
@@ -1791,19 +1791,19 @@
         <v>4224</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>659</v>
+        <v>629</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>10907</v>
+        <v>10666</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.1559444193901049</v>
+        <v>0.1559444193901048</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02433239521891669</v>
+        <v>0.02322767132282235</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.402703402719093</v>
+        <v>0.3938285298284483</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>10</v>
@@ -1812,19 +1812,19 @@
         <v>16122</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>8119</v>
+        <v>8652</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>29590</v>
+        <v>29877</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2010554781919192</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1012516387139673</v>
+        <v>0.1079009901413748</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3690113814633169</v>
+        <v>0.37260063020762</v>
       </c>
     </row>
     <row r="20">
@@ -1841,19 +1841,19 @@
         <v>36161</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>28549</v>
+        <v>28084</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>42902</v>
+        <v>42705</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6809943399733952</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5376327043970208</v>
+        <v>0.5288741960248966</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8079411088228123</v>
+        <v>0.8042272214346601</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>17</v>
@@ -1862,19 +1862,19 @@
         <v>17098</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>10546</v>
+        <v>11073</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>21884</v>
+        <v>22076</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.6312981357899944</v>
+        <v>0.6312981357899943</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3893774720898727</v>
+        <v>0.4088229320006666</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8080087700044084</v>
+        <v>0.8150774468763815</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>45</v>
@@ -1883,19 +1883,19 @@
         <v>53260</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>42483</v>
+        <v>43222</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>61783</v>
+        <v>61720</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.664208488432771</v>
+        <v>0.6642084884327711</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5297999847429977</v>
+        <v>0.5390279515727793</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7704927592162386</v>
+        <v>0.7697123787058199</v>
       </c>
     </row>
     <row r="21">
@@ -1912,19 +1912,19 @@
         <v>3595</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1046</v>
+        <v>984</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>9428</v>
+        <v>9431</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.06770957962110102</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.0197072508368052</v>
+        <v>0.0185346005053688</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1775578055480285</v>
+        <v>0.1775978509637235</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>6</v>
@@ -1933,19 +1933,19 @@
         <v>6412</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>2624</v>
+        <v>2567</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>13489</v>
+        <v>12617</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.2367522956836285</v>
+        <v>0.2367522956836284</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.0968958195888954</v>
+        <v>0.09476558704687216</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4980367170777555</v>
+        <v>0.4658437183438274</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>9</v>
@@ -1954,19 +1954,19 @@
         <v>10008</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>4605</v>
+        <v>4527</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>19414</v>
+        <v>18982</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.124807017593984</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.05742723088189052</v>
+        <v>0.05645785394026578</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.24211315240297</v>
+        <v>0.2367234718146454</v>
       </c>
     </row>
     <row r="22">
@@ -1983,19 +1983,19 @@
         <v>26945</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>17798</v>
+        <v>18599</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>34917</v>
+        <v>36058</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5074276096439028</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3351763176201725</v>
+        <v>0.3502523485187387</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6575501831435131</v>
+        <v>0.6790432555699417</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>13</v>
@@ -2004,19 +2004,19 @@
         <v>10854</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>5942</v>
+        <v>5884</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>16286</v>
+        <v>16403</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.400754516549837</v>
+        <v>0.4007545165498368</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2193771231883669</v>
+        <v>0.2172640585841935</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6013156276293046</v>
+        <v>0.6056256911919539</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>40</v>
@@ -2025,19 +2025,19 @@
         <v>37799</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>28440</v>
+        <v>28071</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>48293</v>
+        <v>48616</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.4713967148607103</v>
+        <v>0.4713967148607104</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.354670202765111</v>
+        <v>0.3500777527309834</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6022606368898098</v>
+        <v>0.6062872844709781</v>
       </c>
     </row>
     <row r="23">
@@ -2057,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>6067</v>
+        <v>6025</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01988426527103912</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1142451976506073</v>
+        <v>0.1134666633413297</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1</v>
@@ -2078,16 +2078,16 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>5949</v>
+        <v>5931</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.04994815308960099</v>
+        <v>0.04994815308960098</v>
       </c>
       <c r="O23" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2196411388300719</v>
+        <v>0.2189733380043984</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2</v>
@@ -2099,16 +2099,16 @@
         <v>0</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>7725</v>
+        <v>8309</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.03003892327658787</v>
+        <v>0.03003892327658788</v>
       </c>
       <c r="V23" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.09634056268580944</v>
+        <v>0.1036221733933469</v>
       </c>
     </row>
     <row r="24">
@@ -2129,19 +2129,19 @@
         <v>38147</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>25446</v>
+        <v>26703</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>53904</v>
+        <v>54641</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2362308275447026</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1575765604777465</v>
+        <v>0.1653606973644928</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3338082151575512</v>
+        <v>0.3383738396584019</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>13</v>
@@ -2150,19 +2150,19 @@
         <v>14782</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>8231</v>
+        <v>8487</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>23384</v>
+        <v>24356</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.2354892415323595</v>
+        <v>0.2354892415323596</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1311322802627545</v>
+        <v>0.135204250093258</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3725287383564092</v>
+        <v>0.3880110267834571</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>41</v>
@@ -2171,19 +2171,19 @@
         <v>52929</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>39290</v>
+        <v>39432</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>68966</v>
+        <v>70336</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.2360232501975153</v>
+        <v>0.2360232501975154</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1752035201687171</v>
+        <v>0.1758393054942021</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3075373295351399</v>
+        <v>0.3136462820106761</v>
       </c>
     </row>
     <row r="25">
@@ -2200,19 +2200,19 @@
         <v>106085</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>91857</v>
+        <v>91185</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>119574</v>
+        <v>118008</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.6569461383875637</v>
+        <v>0.6569461383875638</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.5688369954773019</v>
+        <v>0.5646761471249696</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.7404801971267296</v>
+        <v>0.7307816365087456</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>45</v>
@@ -2221,19 +2221,19 @@
         <v>44899</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>36973</v>
+        <v>35987</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>50844</v>
+        <v>51377</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.7152802354023977</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.589021926611499</v>
+        <v>0.5732996075400347</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.8099958673373021</v>
+        <v>0.8184848742666792</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>136</v>
@@ -2242,19 +2242,19 @@
         <v>150984</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>135320</v>
+        <v>134167</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>166770</v>
+        <v>164010</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.6732744359921026</v>
+        <v>0.6732744359921027</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.6034261284198864</v>
+        <v>0.5982836248946619</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.743671092417775</v>
+        <v>0.7313595317323056</v>
       </c>
     </row>
     <row r="26">
@@ -2271,19 +2271,19 @@
         <v>28174</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>18794</v>
+        <v>18038</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>41748</v>
+        <v>40854</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1744712219838913</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.116383155171635</v>
+        <v>0.1117042471662311</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2585276312996014</v>
+        <v>0.2529928141080319</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>9</v>
@@ -2292,19 +2292,19 @@
         <v>10090</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>5054</v>
+        <v>4759</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>18391</v>
+        <v>18688</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.1607405334475278</v>
+        <v>0.1607405334475279</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.08051583866789841</v>
+        <v>0.07581578754079152</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2929820182409479</v>
+        <v>0.2977225159655792</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>31</v>
@@ -2313,19 +2313,19 @@
         <v>38264</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>25831</v>
+        <v>26468</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>51651</v>
+        <v>52040</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.1706278648358418</v>
+        <v>0.1706278648358419</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1151849037799738</v>
+        <v>0.1180274094447609</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2303257212301962</v>
+        <v>0.2320605660575952</v>
       </c>
     </row>
     <row r="27">
@@ -2342,19 +2342,19 @@
         <v>87085</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>72184</v>
+        <v>73116</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>101146</v>
+        <v>101364</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.539288938615168</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.4470075032857427</v>
+        <v>0.4527812067133346</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.6263623911309903</v>
+        <v>0.6277109865245951</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>27</v>
@@ -2363,19 +2363,19 @@
         <v>22705</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>15360</v>
+        <v>15915</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>30670</v>
+        <v>31495</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.3617116607930215</v>
+        <v>0.3617116607930216</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2446985293868681</v>
+        <v>0.2535449088683071</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.4886039034951958</v>
+        <v>0.5017398849877803</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>111</v>
@@ -2384,19 +2384,19 @@
         <v>109791</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>91563</v>
+        <v>93580</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>125700</v>
+        <v>127331</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.4895832812301472</v>
+        <v>0.4895832812301473</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.4083006201005621</v>
+        <v>0.4172955076721734</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.5605288312706291</v>
+        <v>0.5678008561398329</v>
       </c>
     </row>
     <row r="28">
@@ -2413,19 +2413,19 @@
         <v>3093</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>7866</v>
+        <v>8772</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01915236672268698</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.005588732106044193</v>
+        <v>0.005553815850899205</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.04871288218933682</v>
+        <v>0.05432113028528174</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>4</v>
@@ -2434,19 +2434,19 @@
         <v>5064</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1124</v>
+        <v>1425</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>10982</v>
+        <v>12215</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.08067336811285285</v>
+        <v>0.08067336811285286</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01790257697574498</v>
+        <v>0.02269804052002047</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1749554766128776</v>
+        <v>0.1945910373338672</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>7</v>
@@ -2455,19 +2455,19 @@
         <v>8157</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3577</v>
+        <v>3304</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>16219</v>
+        <v>17409</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.0363727107587391</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01595116734065267</v>
+        <v>0.01473309812798577</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.07232442257281853</v>
+        <v>0.0776294361974434</v>
       </c>
     </row>
     <row r="29">
